--- a/document/[HTQLHSKHCN] Kế hoạch dự án v1.0.xlsx
+++ b/document/[HTQLHSKHCN] Kế hoạch dự án v1.0.xlsx
@@ -781,66 +781,66 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1100,7 +1100,7 @@
     <col min="2" max="2" width="71.5703125" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
     <col min="5" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="76" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="60" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
     <col min="11" max="11" width="7.28515625" customWidth="1"/>
     <col min="12" max="12" width="21.5703125" customWidth="1"/>
@@ -1110,93 +1110,93 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="72"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="72"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="58"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="72"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1">
       <c r="A6" s="4"/>
@@ -1207,7 +1207,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="69"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
       <c r="L6" s="5"/>
@@ -1216,21 +1216,21 @@
     </row>
     <row r="7" spans="1:14" ht="37.5" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="58"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="4"/>
@@ -1241,7 +1241,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="69"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
       <c r="L8" s="5"/>
@@ -1249,44 +1249,44 @@
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="53" t="s">
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="59" t="s">
+      <c r="N9" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="12" t="s">
         <v>15</v>
       </c>
@@ -1299,22 +1299,22 @@
       <c r="H10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="54" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="13" t="s">
         <v>21</v>
       </c>
@@ -1327,16 +1327,16 @@
       <c r="H11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="55" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" customHeight="1">
       <c r="A12" s="14">
@@ -1357,7 +1357,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="72"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="18"/>
       <c r="K12" s="19">
         <v>1</v>
@@ -1390,7 +1390,7 @@
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="73"/>
+      <c r="I13" s="57"/>
       <c r="J13" s="27"/>
       <c r="K13" s="28">
         <v>1</v>
@@ -1423,7 +1423,7 @@
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="73"/>
+      <c r="I14" s="57"/>
       <c r="J14" s="27"/>
       <c r="K14" s="28">
         <v>1</v>
@@ -1456,7 +1456,7 @@
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
-      <c r="I15" s="73"/>
+      <c r="I15" s="57"/>
       <c r="J15" s="27"/>
       <c r="K15" s="28">
         <v>1</v>
@@ -1489,7 +1489,7 @@
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
-      <c r="I16" s="73"/>
+      <c r="I16" s="57"/>
       <c r="J16" s="27"/>
       <c r="K16" s="28">
         <v>1</v>
@@ -1522,7 +1522,7 @@
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
-      <c r="I17" s="73"/>
+      <c r="I17" s="57"/>
       <c r="J17" s="27"/>
       <c r="K17" s="28">
         <v>1</v>
@@ -1555,7 +1555,7 @@
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
-      <c r="I18" s="73"/>
+      <c r="I18" s="57"/>
       <c r="J18" s="27"/>
       <c r="K18" s="28">
         <v>1</v>
@@ -1588,7 +1588,7 @@
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
-      <c r="I19" s="73"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="27"/>
       <c r="K19" s="28">
         <v>1</v>
@@ -1621,7 +1621,7 @@
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
-      <c r="I20" s="73"/>
+      <c r="I20" s="57"/>
       <c r="J20" s="27"/>
       <c r="K20" s="28">
         <v>1</v>
@@ -1660,7 +1660,7 @@
       <c r="H21" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="73" t="s">
+      <c r="I21" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J21" s="26" t="s">
@@ -1701,7 +1701,7 @@
       <c r="H22" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="73" t="s">
+      <c r="I22" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J22" s="26" t="s">
@@ -1738,7 +1738,7 @@
         <v>28</v>
       </c>
       <c r="H23" s="27"/>
-      <c r="I23" s="73"/>
+      <c r="I23" s="57"/>
       <c r="J23" s="27"/>
       <c r="K23" s="28">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>28</v>
       </c>
       <c r="H24" s="27"/>
-      <c r="I24" s="73"/>
+      <c r="I24" s="57"/>
       <c r="J24" s="27"/>
       <c r="K24" s="28">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>28</v>
       </c>
       <c r="H25" s="27"/>
-      <c r="I25" s="73"/>
+      <c r="I25" s="57"/>
       <c r="J25" s="27"/>
       <c r="K25" s="28">
         <v>0</v>
@@ -1829,7 +1829,7 @@
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
-      <c r="I26" s="73" t="s">
+      <c r="I26" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="27"/>
@@ -1862,7 +1862,7 @@
       <c r="H27" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="73"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="27"/>
       <c r="K27" s="28">
         <v>0</v>
@@ -1893,7 +1893,7 @@
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
-      <c r="I28" s="73"/>
+      <c r="I28" s="57"/>
       <c r="J28" s="27"/>
       <c r="K28" s="28">
         <v>0</v>
@@ -1928,7 +1928,7 @@
       <c r="H29" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="73" t="s">
+      <c r="I29" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="27"/>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
-      <c r="I30" s="73"/>
+      <c r="I30" s="57"/>
       <c r="J30" s="27"/>
       <c r="K30" s="28">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>28</v>
       </c>
       <c r="H31" s="27"/>
-      <c r="I31" s="73"/>
+      <c r="I31" s="57"/>
       <c r="J31" s="27"/>
       <c r="K31" s="28">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>28</v>
       </c>
       <c r="H32" s="27"/>
-      <c r="I32" s="73"/>
+      <c r="I32" s="57"/>
       <c r="J32" s="27"/>
       <c r="K32" s="28">
         <v>0</v>
@@ -2052,7 +2052,7 @@
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
-      <c r="I33" s="73" t="s">
+      <c r="I33" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="27"/>
@@ -2085,7 +2085,7 @@
       <c r="H34" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="73"/>
+      <c r="I34" s="57"/>
       <c r="J34" s="27"/>
       <c r="K34" s="28">
         <v>0</v>
@@ -2116,7 +2116,7 @@
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
-      <c r="I35" s="73"/>
+      <c r="I35" s="57"/>
       <c r="J35" s="27"/>
       <c r="K35" s="28">
         <v>0</v>
@@ -2145,7 +2145,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
-      <c r="I36" s="73"/>
+      <c r="I36" s="57"/>
       <c r="J36" s="26" t="s">
         <v>28</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="H37" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="73" t="s">
+      <c r="I37" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="26" t="s">
@@ -2221,7 +2221,7 @@
       <c r="H38" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="73" t="s">
+      <c r="I38" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J38" s="27"/>
@@ -2252,7 +2252,7 @@
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
-      <c r="I39" s="73"/>
+      <c r="I39" s="57"/>
       <c r="J39" s="26" t="s">
         <v>28</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="H40" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="73" t="s">
+      <c r="I40" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J40" s="27"/>
@@ -2322,7 +2322,7 @@
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
-      <c r="I41" s="73"/>
+      <c r="I41" s="57"/>
       <c r="J41" s="27"/>
       <c r="K41" s="28">
         <v>0</v>
@@ -2357,7 +2357,7 @@
       <c r="H42" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I42" s="73" t="s">
+      <c r="I42" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J42" s="27"/>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="73"/>
+      <c r="I43" s="57"/>
       <c r="J43" s="27"/>
       <c r="K43" s="28">
         <v>0</v>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
-      <c r="I44" s="73"/>
+      <c r="I44" s="57"/>
       <c r="J44" s="27"/>
       <c r="K44" s="28">
         <v>0</v>
@@ -2456,7 +2456,7 @@
       <c r="H45" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="73" t="s">
+      <c r="I45" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J45" s="27"/>
@@ -2487,7 +2487,7 @@
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="73"/>
+      <c r="I46" s="57"/>
       <c r="J46" s="27"/>
       <c r="K46" s="28">
         <v>0</v>
@@ -2524,7 +2524,7 @@
       <c r="H47" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="73" t="s">
+      <c r="I47" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J47" s="26" t="s">
@@ -2563,7 +2563,7 @@
       <c r="H48" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="73" t="s">
+      <c r="I48" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J48" s="26" t="s">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
-      <c r="I49" s="73"/>
+      <c r="I49" s="57"/>
       <c r="J49" s="27"/>
       <c r="K49" s="28">
         <v>0</v>
@@ -2629,7 +2629,7 @@
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
-      <c r="I50" s="73"/>
+      <c r="I50" s="57"/>
       <c r="J50" s="27"/>
       <c r="K50" s="28">
         <v>0</v>
@@ -2666,7 +2666,7 @@
       <c r="H51" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I51" s="73" t="s">
+      <c r="I51" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J51" s="26" t="s">
@@ -2707,7 +2707,7 @@
       <c r="H52" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I52" s="74" t="s">
+      <c r="I52" s="58" t="s">
         <v>28</v>
       </c>
       <c r="J52" s="36" t="s">
@@ -2732,7 +2732,7 @@
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
       <c r="H53" s="44"/>
-      <c r="I53" s="75"/>
+      <c r="I53" s="59"/>
       <c r="J53" s="44"/>
       <c r="K53" s="45"/>
       <c r="L53" s="42"/>
@@ -2744,16 +2744,16 @@
       <c r="B54" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="67">
+      <c r="C54" s="61">
         <f>A52</f>
         <v>41</v>
       </c>
-      <c r="D54" s="66"/>
+      <c r="D54" s="62"/>
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
       <c r="H54" s="44"/>
-      <c r="I54" s="75"/>
+      <c r="I54" s="59"/>
       <c r="J54" s="44"/>
       <c r="K54" s="45"/>
       <c r="L54" s="42"/>
@@ -2765,16 +2765,16 @@
       <c r="B55" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="68">
+      <c r="C55" s="67">
         <f>C21</f>
         <v>44150</v>
       </c>
-      <c r="D55" s="66"/>
+      <c r="D55" s="62"/>
       <c r="E55" s="44"/>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
       <c r="H55" s="44"/>
-      <c r="I55" s="75"/>
+      <c r="I55" s="59"/>
       <c r="J55" s="44"/>
       <c r="K55" s="45"/>
       <c r="L55" s="42"/>
@@ -2786,16 +2786,16 @@
       <c r="B56" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="68">
+      <c r="C56" s="67">
         <f>D51</f>
         <v>44283</v>
       </c>
-      <c r="D56" s="66"/>
+      <c r="D56" s="62"/>
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
       <c r="H56" s="44"/>
-      <c r="I56" s="75"/>
+      <c r="I56" s="59"/>
       <c r="J56" s="44"/>
       <c r="K56" s="45"/>
       <c r="L56" s="42"/>
@@ -2807,16 +2807,16 @@
       <c r="B57" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="67">
+      <c r="C57" s="61">
         <f>C56-C55+1</f>
         <v>134</v>
       </c>
-      <c r="D57" s="66"/>
+      <c r="D57" s="62"/>
       <c r="E57" s="44"/>
       <c r="F57" s="44"/>
       <c r="G57" s="44"/>
       <c r="H57" s="44"/>
-      <c r="I57" s="75"/>
+      <c r="I57" s="59"/>
       <c r="J57" s="44"/>
       <c r="K57" s="45"/>
       <c r="L57" s="42"/>
@@ -2828,16 +2828,16 @@
       <c r="B58" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="67">
+      <c r="C58" s="61">
         <f>COUNTA(A10:N10)</f>
         <v>6</v>
       </c>
-      <c r="D58" s="66"/>
+      <c r="D58" s="62"/>
       <c r="E58" s="44"/>
       <c r="F58" s="44"/>
       <c r="G58" s="44"/>
       <c r="H58" s="44"/>
-      <c r="I58" s="75"/>
+      <c r="I58" s="59"/>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
       <c r="L58" s="42"/>
@@ -2849,16 +2849,16 @@
       <c r="B59" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="65">
+      <c r="C59" s="69">
         <f>AVERAGE(K12:K52)</f>
         <v>0.21951219512195122</v>
       </c>
-      <c r="D59" s="66"/>
+      <c r="D59" s="62"/>
       <c r="E59" s="44"/>
       <c r="F59" s="44"/>
       <c r="G59" s="44"/>
       <c r="H59" s="44"/>
-      <c r="I59" s="75"/>
+      <c r="I59" s="59"/>
       <c r="J59" s="44"/>
       <c r="K59" s="50"/>
       <c r="L59" s="51"/>
@@ -2870,16 +2870,16 @@
       <c r="B60" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="67">
+      <c r="C60" s="61">
         <f>COUNTIF(L:L,"CHƯA BẮT ĐẦU")</f>
         <v>32</v>
       </c>
-      <c r="D60" s="66"/>
+      <c r="D60" s="62"/>
       <c r="E60" s="44"/>
       <c r="F60" s="44"/>
       <c r="G60" s="44"/>
       <c r="H60" s="44"/>
-      <c r="I60" s="75"/>
+      <c r="I60" s="59"/>
       <c r="J60" s="44"/>
       <c r="K60" s="45"/>
       <c r="L60" s="42"/>
@@ -2891,16 +2891,16 @@
       <c r="B61" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="67">
+      <c r="C61" s="61">
         <f>COUNTIF(L:L,"ĐANG THỰC HIỆN")</f>
         <v>0</v>
       </c>
-      <c r="D61" s="66"/>
+      <c r="D61" s="62"/>
       <c r="E61" s="44"/>
       <c r="F61" s="44"/>
       <c r="G61" s="44"/>
       <c r="H61" s="44"/>
-      <c r="I61" s="75"/>
+      <c r="I61" s="59"/>
       <c r="J61" s="44"/>
       <c r="K61" s="45"/>
       <c r="L61" s="42"/>
@@ -2912,16 +2912,16 @@
       <c r="B62" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="67">
+      <c r="C62" s="61">
         <f>COUNTIF(L:L,"HOÀN THÀNH")</f>
         <v>9</v>
       </c>
-      <c r="D62" s="66"/>
+      <c r="D62" s="62"/>
       <c r="E62" s="44"/>
       <c r="F62" s="44"/>
       <c r="G62" s="44"/>
       <c r="H62" s="44"/>
-      <c r="I62" s="75"/>
+      <c r="I62" s="59"/>
       <c r="J62" s="44"/>
       <c r="K62" s="45"/>
       <c r="L62" s="42"/>
@@ -2933,13 +2933,13 @@
       <c r="B63" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="67"/>
-      <c r="D63" s="66"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="62"/>
       <c r="E63" s="44"/>
       <c r="F63" s="44"/>
       <c r="G63" s="44"/>
       <c r="H63" s="44"/>
-      <c r="I63" s="75"/>
+      <c r="I63" s="59"/>
       <c r="J63" s="44"/>
       <c r="K63" s="45"/>
       <c r="L63" s="42"/>
@@ -2955,7 +2955,7 @@
       <c r="F64" s="44"/>
       <c r="G64" s="44"/>
       <c r="H64" s="44"/>
-      <c r="I64" s="75"/>
+      <c r="I64" s="59"/>
       <c r="J64" s="44"/>
       <c r="K64" s="45"/>
       <c r="L64" s="42"/>
@@ -2971,7 +2971,7 @@
       <c r="F65" s="44"/>
       <c r="G65" s="44"/>
       <c r="H65" s="44"/>
-      <c r="I65" s="75"/>
+      <c r="I65" s="59"/>
       <c r="J65" s="44"/>
       <c r="K65" s="45"/>
       <c r="L65" s="42"/>
@@ -2987,7 +2987,7 @@
       <c r="F66" s="44"/>
       <c r="G66" s="44"/>
       <c r="H66" s="44"/>
-      <c r="I66" s="75"/>
+      <c r="I66" s="59"/>
       <c r="J66" s="44"/>
       <c r="K66" s="45"/>
       <c r="L66" s="42"/>
@@ -3003,7 +3003,7 @@
       <c r="F67" s="44"/>
       <c r="G67" s="44"/>
       <c r="H67" s="44"/>
-      <c r="I67" s="75"/>
+      <c r="I67" s="59"/>
       <c r="J67" s="44"/>
       <c r="K67" s="45"/>
       <c r="L67" s="42"/>
@@ -3019,7 +3019,7 @@
       <c r="F68" s="44"/>
       <c r="G68" s="44"/>
       <c r="H68" s="44"/>
-      <c r="I68" s="75"/>
+      <c r="I68" s="59"/>
       <c r="J68" s="44"/>
       <c r="K68" s="45"/>
       <c r="L68" s="42"/>
@@ -3035,7 +3035,7 @@
       <c r="F69" s="44"/>
       <c r="G69" s="44"/>
       <c r="H69" s="44"/>
-      <c r="I69" s="75"/>
+      <c r="I69" s="59"/>
       <c r="J69" s="44"/>
       <c r="K69" s="45"/>
       <c r="L69" s="42"/>
@@ -3051,7 +3051,7 @@
       <c r="F70" s="44"/>
       <c r="G70" s="44"/>
       <c r="H70" s="44"/>
-      <c r="I70" s="75"/>
+      <c r="I70" s="59"/>
       <c r="J70" s="44"/>
       <c r="K70" s="45"/>
       <c r="L70" s="42"/>
@@ -3067,7 +3067,7 @@
       <c r="F71" s="44"/>
       <c r="G71" s="44"/>
       <c r="H71" s="44"/>
-      <c r="I71" s="75"/>
+      <c r="I71" s="59"/>
       <c r="J71" s="44"/>
       <c r="K71" s="45"/>
       <c r="L71" s="42"/>
@@ -3083,7 +3083,7 @@
       <c r="F72" s="44"/>
       <c r="G72" s="44"/>
       <c r="H72" s="44"/>
-      <c r="I72" s="75"/>
+      <c r="I72" s="59"/>
       <c r="J72" s="44"/>
       <c r="K72" s="45"/>
       <c r="L72" s="42"/>
@@ -3099,7 +3099,7 @@
       <c r="F73" s="44"/>
       <c r="G73" s="44"/>
       <c r="H73" s="44"/>
-      <c r="I73" s="75"/>
+      <c r="I73" s="59"/>
       <c r="J73" s="44"/>
       <c r="K73" s="45"/>
       <c r="L73" s="42"/>
@@ -3115,7 +3115,7 @@
       <c r="F74" s="44"/>
       <c r="G74" s="44"/>
       <c r="H74" s="44"/>
-      <c r="I74" s="75"/>
+      <c r="I74" s="59"/>
       <c r="J74" s="44"/>
       <c r="K74" s="45"/>
       <c r="L74" s="42"/>
@@ -3131,7 +3131,7 @@
       <c r="F75" s="44"/>
       <c r="G75" s="44"/>
       <c r="H75" s="44"/>
-      <c r="I75" s="75"/>
+      <c r="I75" s="59"/>
       <c r="J75" s="44"/>
       <c r="K75" s="45"/>
       <c r="L75" s="42"/>
@@ -3147,7 +3147,7 @@
       <c r="F76" s="44"/>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
-      <c r="I76" s="75"/>
+      <c r="I76" s="59"/>
       <c r="J76" s="44"/>
       <c r="K76" s="45"/>
       <c r="L76" s="42"/>
@@ -3163,7 +3163,7 @@
       <c r="F77" s="44"/>
       <c r="G77" s="44"/>
       <c r="H77" s="44"/>
-      <c r="I77" s="75"/>
+      <c r="I77" s="59"/>
       <c r="J77" s="44"/>
       <c r="K77" s="45"/>
       <c r="L77" s="42"/>
@@ -3179,7 +3179,7 @@
       <c r="F78" s="44"/>
       <c r="G78" s="44"/>
       <c r="H78" s="44"/>
-      <c r="I78" s="75"/>
+      <c r="I78" s="59"/>
       <c r="J78" s="44"/>
       <c r="K78" s="45"/>
       <c r="L78" s="42"/>
@@ -3195,7 +3195,7 @@
       <c r="F79" s="44"/>
       <c r="G79" s="44"/>
       <c r="H79" s="44"/>
-      <c r="I79" s="75"/>
+      <c r="I79" s="59"/>
       <c r="J79" s="44"/>
       <c r="K79" s="45"/>
       <c r="L79" s="42"/>
@@ -3211,7 +3211,7 @@
       <c r="F80" s="44"/>
       <c r="G80" s="44"/>
       <c r="H80" s="44"/>
-      <c r="I80" s="75"/>
+      <c r="I80" s="59"/>
       <c r="J80" s="44"/>
       <c r="K80" s="45"/>
       <c r="L80" s="42"/>
@@ -3227,7 +3227,7 @@
       <c r="F81" s="44"/>
       <c r="G81" s="44"/>
       <c r="H81" s="44"/>
-      <c r="I81" s="75"/>
+      <c r="I81" s="59"/>
       <c r="J81" s="44"/>
       <c r="K81" s="45"/>
       <c r="L81" s="42"/>
@@ -3243,7 +3243,7 @@
       <c r="F82" s="44"/>
       <c r="G82" s="44"/>
       <c r="H82" s="44"/>
-      <c r="I82" s="75"/>
+      <c r="I82" s="59"/>
       <c r="J82" s="44"/>
       <c r="K82" s="45"/>
       <c r="L82" s="42"/>
@@ -3259,7 +3259,7 @@
       <c r="F83" s="44"/>
       <c r="G83" s="44"/>
       <c r="H83" s="44"/>
-      <c r="I83" s="75"/>
+      <c r="I83" s="59"/>
       <c r="J83" s="44"/>
       <c r="K83" s="45"/>
       <c r="L83" s="42"/>
@@ -3275,7 +3275,7 @@
       <c r="F84" s="44"/>
       <c r="G84" s="44"/>
       <c r="H84" s="44"/>
-      <c r="I84" s="75"/>
+      <c r="I84" s="59"/>
       <c r="J84" s="44"/>
       <c r="K84" s="45"/>
       <c r="L84" s="42"/>
@@ -3291,7 +3291,7 @@
       <c r="F85" s="44"/>
       <c r="G85" s="44"/>
       <c r="H85" s="44"/>
-      <c r="I85" s="75"/>
+      <c r="I85" s="59"/>
       <c r="J85" s="44"/>
       <c r="K85" s="45"/>
       <c r="L85" s="42"/>
@@ -3307,7 +3307,7 @@
       <c r="F86" s="44"/>
       <c r="G86" s="44"/>
       <c r="H86" s="44"/>
-      <c r="I86" s="75"/>
+      <c r="I86" s="59"/>
       <c r="J86" s="44"/>
       <c r="K86" s="45"/>
       <c r="L86" s="42"/>
@@ -3323,7 +3323,7 @@
       <c r="F87" s="44"/>
       <c r="G87" s="44"/>
       <c r="H87" s="44"/>
-      <c r="I87" s="75"/>
+      <c r="I87" s="59"/>
       <c r="J87" s="44"/>
       <c r="K87" s="45"/>
       <c r="L87" s="42"/>
@@ -3339,7 +3339,7 @@
       <c r="F88" s="44"/>
       <c r="G88" s="44"/>
       <c r="H88" s="44"/>
-      <c r="I88" s="75"/>
+      <c r="I88" s="59"/>
       <c r="J88" s="44"/>
       <c r="K88" s="45"/>
       <c r="L88" s="42"/>
@@ -3355,7 +3355,7 @@
       <c r="F89" s="44"/>
       <c r="G89" s="44"/>
       <c r="H89" s="44"/>
-      <c r="I89" s="75"/>
+      <c r="I89" s="59"/>
       <c r="J89" s="44"/>
       <c r="K89" s="45"/>
       <c r="L89" s="42"/>
@@ -3371,7 +3371,7 @@
       <c r="F90" s="44"/>
       <c r="G90" s="44"/>
       <c r="H90" s="44"/>
-      <c r="I90" s="75"/>
+      <c r="I90" s="59"/>
       <c r="J90" s="44"/>
       <c r="K90" s="45"/>
       <c r="L90" s="42"/>
@@ -3387,7 +3387,7 @@
       <c r="F91" s="44"/>
       <c r="G91" s="44"/>
       <c r="H91" s="44"/>
-      <c r="I91" s="75"/>
+      <c r="I91" s="59"/>
       <c r="J91" s="44"/>
       <c r="K91" s="45"/>
       <c r="L91" s="42"/>
@@ -3403,7 +3403,7 @@
       <c r="F92" s="44"/>
       <c r="G92" s="44"/>
       <c r="H92" s="44"/>
-      <c r="I92" s="75"/>
+      <c r="I92" s="59"/>
       <c r="J92" s="44"/>
       <c r="K92" s="45"/>
       <c r="L92" s="42"/>
@@ -3419,7 +3419,7 @@
       <c r="F93" s="44"/>
       <c r="G93" s="44"/>
       <c r="H93" s="44"/>
-      <c r="I93" s="75"/>
+      <c r="I93" s="59"/>
       <c r="J93" s="44"/>
       <c r="K93" s="45"/>
       <c r="L93" s="42"/>
@@ -3435,7 +3435,7 @@
       <c r="F94" s="44"/>
       <c r="G94" s="44"/>
       <c r="H94" s="44"/>
-      <c r="I94" s="75"/>
+      <c r="I94" s="59"/>
       <c r="J94" s="44"/>
       <c r="K94" s="45"/>
       <c r="L94" s="42"/>
@@ -3451,7 +3451,7 @@
       <c r="F95" s="44"/>
       <c r="G95" s="44"/>
       <c r="H95" s="44"/>
-      <c r="I95" s="75"/>
+      <c r="I95" s="59"/>
       <c r="J95" s="44"/>
       <c r="K95" s="45"/>
       <c r="L95" s="42"/>
@@ -3467,7 +3467,7 @@
       <c r="F96" s="44"/>
       <c r="G96" s="44"/>
       <c r="H96" s="44"/>
-      <c r="I96" s="75"/>
+      <c r="I96" s="59"/>
       <c r="J96" s="44"/>
       <c r="K96" s="45"/>
       <c r="L96" s="42"/>
@@ -3483,7 +3483,7 @@
       <c r="F97" s="44"/>
       <c r="G97" s="44"/>
       <c r="H97" s="44"/>
-      <c r="I97" s="75"/>
+      <c r="I97" s="59"/>
       <c r="J97" s="44"/>
       <c r="K97" s="45"/>
       <c r="L97" s="42"/>
@@ -3499,7 +3499,7 @@
       <c r="F98" s="44"/>
       <c r="G98" s="44"/>
       <c r="H98" s="44"/>
-      <c r="I98" s="75"/>
+      <c r="I98" s="59"/>
       <c r="J98" s="44"/>
       <c r="K98" s="45"/>
       <c r="L98" s="42"/>
@@ -3515,7 +3515,7 @@
       <c r="F99" s="44"/>
       <c r="G99" s="44"/>
       <c r="H99" s="44"/>
-      <c r="I99" s="75"/>
+      <c r="I99" s="59"/>
       <c r="J99" s="44"/>
       <c r="K99" s="45"/>
       <c r="L99" s="42"/>
@@ -3531,7 +3531,7 @@
       <c r="F100" s="44"/>
       <c r="G100" s="44"/>
       <c r="H100" s="44"/>
-      <c r="I100" s="75"/>
+      <c r="I100" s="59"/>
       <c r="J100" s="44"/>
       <c r="K100" s="45"/>
       <c r="L100" s="42"/>
@@ -3540,19 +3540,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
     <mergeCell ref="N9:N11"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N2"/>
@@ -3565,6 +3552,19 @@
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="L9:L11"/>
     <mergeCell ref="M9:M11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
   </mergeCells>
   <conditionalFormatting sqref="A12:N52">
     <cfRule type="expression" dxfId="2" priority="1">
